--- a/datasets/seven_one_cd.xlsx
+++ b/datasets/seven_one_cd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF16C5-6C6E-4097-9AF1-8F57F8871AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E3B7A-0BCE-4E89-9255-52F8A308D9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,16 @@
     <t>Female-Foreign born</t>
   </si>
   <si>
-    <t>Male-Sweden, Foreign born parents</t>
-  </si>
-  <si>
-    <t>Female-Sweden, Foreign born parents</t>
-  </si>
-  <si>
     <t>Male-Sweden</t>
   </si>
   <si>
     <t>Female-Sweden</t>
+  </si>
+  <si>
+    <t>Male-Sweden, foreign born parents</t>
+  </si>
+  <si>
+    <t>Female-Sweden, foreign born parents</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +454,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
